--- a/3C Projet Master/Assets/Personality questions.xlsx
+++ b/3C Projet Master/Assets/Personality questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos\Ludus\Unity\3C Projet Master\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos\Ludus\Unity\ProjetMaster\3C Projet Master\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1FA169-5D40-4B72-8841-88EDFCBDC8DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE689D6-5BCE-46CC-9246-9FAE7373525F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{8A35340A-273B-49D7-9ECD-2D2E151D8594}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="62">
   <si>
     <t>Questions</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Anger after fristrating situation (Affectiva)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast mood changes (Affectiva) </t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -480,6 +486,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
@@ -823,7 +830,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,8 +878,8 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
+      <c r="D2" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1055,7 +1062,7 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="2" t="b">
@@ -1330,6 +1337,14 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
